--- a/문서/TurtleBomb_Adventure_Quest_Table.xlsx
+++ b/문서/TurtleBomb_Adventure_Quest_Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Desktop\한국산업기술대학교\2017 4학년 2학기\졸업작품\Turtle Bomb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Quest_Table" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -69,36 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1 스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2 스테이지</t>
-  </si>
-  <si>
-    <t>1-3 스테이지</t>
-  </si>
-  <si>
-    <t>2-1 스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2 스테이지</t>
-  </si>
-  <si>
-    <t>2-3 스테이지</t>
-  </si>
-  <si>
-    <t>3-1 스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2 스테이지</t>
-  </si>
-  <si>
-    <t>3-3 스테이지</t>
-  </si>
-  <si>
     <t>Quest_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +106,10 @@
   </si>
   <si>
     <t>Queset_Goal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -143,9 +117,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,18 +532,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,9 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,18 +583,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,9 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,6 +614,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,248 +642,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1284,51 +1017,51 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8984375" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="40" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1337,22 +1070,22 @@
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
+      <c r="C3" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
@@ -1360,666 +1093,666 @@
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="42">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="43">
+        <v>3</v>
+      </c>
+      <c r="D10" s="30">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="43">
+        <v>3</v>
+      </c>
+      <c r="D11" s="30">
+        <v>2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30">
+        <v>4</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2</v>
+      </c>
+      <c r="C13" s="42">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2</v>
+      </c>
+      <c r="C14" s="42">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>13</v>
+      </c>
+      <c r="B16" s="20">
+        <v>2</v>
+      </c>
+      <c r="C16" s="42">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>14</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="42">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2</v>
+      </c>
+      <c r="C18" s="42">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>16</v>
+      </c>
+      <c r="B19" s="33">
+        <v>2</v>
+      </c>
+      <c r="C19" s="43">
+        <v>3</v>
+      </c>
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>17</v>
+      </c>
+      <c r="B20" s="33">
+        <v>2</v>
+      </c>
+      <c r="C20" s="43">
+        <v>3</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>18</v>
+      </c>
+      <c r="B21" s="33">
+        <v>2</v>
+      </c>
+      <c r="C21" s="43">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30">
+        <v>4</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20">
+        <v>3</v>
+      </c>
+      <c r="C22" s="42">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20">
+        <v>3</v>
+      </c>
+      <c r="C23" s="42">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="20">
+        <v>3</v>
+      </c>
+      <c r="C24" s="42">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>22</v>
+      </c>
+      <c r="B25" s="20">
+        <v>3</v>
+      </c>
+      <c r="C25" s="42">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20">
+        <v>3</v>
+      </c>
+      <c r="C26" s="42">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>24</v>
+      </c>
+      <c r="B27" s="20">
+        <v>3</v>
+      </c>
+      <c r="C27" s="42">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="33">
+        <v>3</v>
+      </c>
+      <c r="C28" s="43">
+        <v>3</v>
+      </c>
+      <c r="D28" s="30">
+        <v>1</v>
+      </c>
+      <c r="E28" s="30">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="27">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="27">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="27">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="27">
+      <c r="B29" s="33">
+        <v>3</v>
+      </c>
+      <c r="C29" s="43">
+        <v>3</v>
+      </c>
+      <c r="D29" s="30">
+        <v>2</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="34">
+        <v>27</v>
+      </c>
+      <c r="B30" s="35">
+        <v>3</v>
+      </c>
+      <c r="C30" s="44">
+        <v>3</v>
+      </c>
+      <c r="D30" s="36">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="27">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="27">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="32">
-        <v>7</v>
-      </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="35">
-        <v>1</v>
-      </c>
-      <c r="E10" s="35">
-        <v>1</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="32">
-        <v>8</v>
-      </c>
-      <c r="B11" s="33">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="35">
-        <v>2</v>
-      </c>
-      <c r="E11" s="35">
-        <v>1</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="32">
-        <v>9</v>
-      </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="35">
-        <v>4</v>
-      </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="27">
-        <v>10</v>
-      </c>
-      <c r="B13" s="23">
-        <v>2</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="27">
-        <v>11</v>
-      </c>
-      <c r="B14" s="23">
-        <v>2</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="27">
-        <v>12</v>
-      </c>
-      <c r="B15" s="23">
-        <v>2</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="27">
-        <v>13</v>
-      </c>
-      <c r="B16" s="23">
-        <v>2</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="27">
-        <v>14</v>
-      </c>
-      <c r="B17" s="23">
-        <v>2</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="27">
-        <v>15</v>
-      </c>
-      <c r="B18" s="23">
-        <v>2</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="32">
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="38">
-        <v>2</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="35">
-        <v>1</v>
-      </c>
-      <c r="E19" s="35">
-        <v>1</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="32">
-        <v>17</v>
-      </c>
-      <c r="B20" s="38">
-        <v>2</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="35">
-        <v>2</v>
-      </c>
-      <c r="E20" s="35">
-        <v>1</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="32">
-        <v>18</v>
-      </c>
-      <c r="B21" s="38">
-        <v>2</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="35">
-        <v>4</v>
-      </c>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="27">
-        <v>19</v>
-      </c>
-      <c r="B22" s="23">
-        <v>3</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="27">
-        <v>20</v>
-      </c>
-      <c r="B23" s="23">
-        <v>3</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="27">
-        <v>21</v>
-      </c>
-      <c r="B24" s="23">
-        <v>3</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="27">
-        <v>22</v>
-      </c>
-      <c r="B25" s="23">
-        <v>3</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="27">
-        <v>23</v>
-      </c>
-      <c r="B26" s="23">
-        <v>3</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="23">
-        <v>3</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="32">
-        <v>25</v>
-      </c>
-      <c r="B28" s="38">
-        <v>3</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="35">
-        <v>1</v>
-      </c>
-      <c r="E28" s="35">
-        <v>1</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="32">
-        <v>26</v>
-      </c>
-      <c r="B29" s="38">
-        <v>3</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="35">
-        <v>2</v>
-      </c>
-      <c r="E29" s="35">
-        <v>1</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="39">
-        <v>27</v>
-      </c>
-      <c r="B30" s="40">
-        <v>3</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="42">
-        <v>4</v>
-      </c>
-      <c r="E30" s="42">
-        <v>0</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="44">
+      <c r="G30" s="38">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4:F21">
-    <cfRule type="containsText" dxfId="45" priority="9010" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="11" priority="9010" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="9011" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="10" priority="9011" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="9012" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="9" priority="9012" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G28">
-    <cfRule type="containsText" dxfId="42" priority="8896" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="8" priority="8896" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="8897" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="7" priority="8897" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="8898" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="6" priority="8898" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
